--- a/Despesas mensais.xlsx
+++ b/Despesas mensais.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANA\Desktop\FATEC\Informática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C792D9E5-906B-4A46-866B-AD6C42BC2F57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5F8EE5-C999-474A-B9D3-B30162E86913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$14</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +112,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +120,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,6 +169,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,47 +277,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -321,47 +292,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -377,47 +307,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1033,16 +922,16 @@
                   <c:v>Carro</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Lanches</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Estética</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Tv à cabo</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Aluguel</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Feira</c:v>
@@ -1078,16 +967,16 @@
                   <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>250</c:v>
@@ -2581,7 +2470,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F6F1C1E-F810-45D1-8E76-02FD206C916C}" name="Tabela Dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F6F1C1E-F810-45D1-8E76-02FD206C916C}" name="Tabela Dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A2:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -3028,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,7 +2947,7 @@
       <c r="B2" s="2">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3069,7 +2958,7 @@
       <c r="B3" s="2">
         <v>180</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3080,7 +2969,7 @@
       <c r="B4" s="2">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3091,7 +2980,7 @@
       <c r="B5" s="2">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3102,7 +2991,7 @@
       <c r="B6" s="2">
         <v>600</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3113,7 +3002,7 @@
       <c r="B7" s="2">
         <v>700</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3124,52 +3013,52 @@
       <c r="B8" s="2">
         <v>650</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>900</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>900</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,7 +3068,7 @@
       <c r="B13" s="2">
         <v>250</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3224,6 +3113,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C14" xr:uid="{10074823-ACB2-4C60-A618-C9000D8DB91E}">
+    <sortState ref="A2:C14">
+      <sortCondition ref="C1:C14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3232,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABD9498-314D-48FC-8342-980A61694805}">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
